--- a/raw_data/20200818_saline/20200818_Sensor3_Test_20.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_20.xlsx
@@ -1,658 +1,1074 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88470E-A5BE-46A0-8D59-0BEEF9F2BC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>17657.212802</v>
+        <v>17657.212801999998</v>
       </c>
       <c r="B2" s="1">
-        <v>4.904781</v>
+        <v>4.9047809999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1138.380000</v>
+        <v>1138.3800000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.690000</v>
+        <v>-258.69</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>17667.295012</v>
+        <v>17667.295011999999</v>
       </c>
       <c r="G2" s="1">
-        <v>4.907582</v>
+        <v>4.9075819999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>1159.240000</v>
+        <v>1159.24</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.808000</v>
+        <v>-217.80799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>17677.722406</v>
+        <v>17677.722406000001</v>
       </c>
       <c r="L2" s="1">
-        <v>4.910478</v>
+        <v>4.9104780000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>1186.850000</v>
+        <v>1186.8499999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.261000</v>
+        <v>-150.261</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>17688.220697</v>
+        <v>17688.220697000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.913395</v>
+        <v>4.9133950000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>1194.230000</v>
+        <v>1194.23</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.029000</v>
+        <v>-128.029</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>17698.173694</v>
+        <v>17698.173694000001</v>
       </c>
       <c r="V2" s="1">
-        <v>4.916159</v>
+        <v>4.9161590000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>1201.320000</v>
+        <v>1201.32</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.153000</v>
+        <v>-107.15300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>17708.631567</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.919064</v>
+        <v>4.9190639999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>1208.380000</v>
+        <v>1208.3800000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.194200</v>
+        <v>-90.194199999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>17719.194369</v>
+        <v>17719.194369000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.921998</v>
+        <v>4.9219980000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1213.040000</v>
+        <v>1213.04</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.563900</v>
+        <v>-85.563900000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>17729.643586</v>
+        <v>17729.643585999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.924901</v>
+        <v>4.9249010000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1219.840000</v>
+        <v>1219.8399999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.096500</v>
+        <v>-89.096500000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>17740.194518</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.927832</v>
+        <v>4.9278320000000004</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.086000</v>
+        <v>-101.086</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>17751.555851</v>
+        <v>17751.555851000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.930988</v>
+        <v>4.9309880000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.458000</v>
+        <v>-120.458</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>17762.284637</v>
+        <v>17762.284637000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.933968</v>
+        <v>4.9339680000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1245.930000</v>
+        <v>1245.93</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.944000</v>
+        <v>-137.94399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>17773.216647</v>
+        <v>17773.216647000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.937005</v>
+        <v>4.9370050000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.842000</v>
+        <v>-219.84200000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>17784.309695</v>
@@ -661,437 +1077,437 @@
         <v>4.940086</v>
       </c>
       <c r="BK2" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="BL2" s="1">
-        <v>-356.367000</v>
+        <v>-356.36700000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>17795.799514</v>
+        <v>17795.799513999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.943278</v>
+        <v>4.9432780000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1468.530000</v>
+        <v>1468.53</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.203000</v>
+        <v>-579.20299999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>17806.146524</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.946152</v>
+        <v>4.9461519999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1600.060000</v>
+        <v>1600.06</v>
       </c>
       <c r="BV2" s="1">
-        <v>-831.540000</v>
+        <v>-831.54</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>17816.478199</v>
+        <v>17816.478199000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.949022</v>
+        <v>4.9490220000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1751.010000</v>
+        <v>1751.01</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1105.920000</v>
+        <v>-1105.92</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>17827.477509</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.952077</v>
+        <v>4.9520770000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2170.460000</v>
+        <v>2170.46</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1774.050000</v>
+        <v>-1774.05</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>17657.584342</v>
+        <v>17657.584341999998</v>
       </c>
       <c r="B3" s="1">
-        <v>4.904885</v>
+        <v>4.9048850000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1138.280000</v>
+        <v>1138.28</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.809000</v>
+        <v>-258.80900000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>17667.724515</v>
+        <v>17667.724515000002</v>
       </c>
       <c r="G3" s="1">
-        <v>4.907701</v>
+        <v>4.9077010000000003</v>
       </c>
       <c r="H3" s="1">
-        <v>1159.050000</v>
+        <v>1159.05</v>
       </c>
       <c r="I3" s="1">
-        <v>-216.580000</v>
+        <v>-216.58</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>17678.142983</v>
+        <v>17678.142983000002</v>
       </c>
       <c r="L3" s="1">
-        <v>4.910595</v>
+        <v>4.9105949999999998</v>
       </c>
       <c r="M3" s="1">
-        <v>1186.890000</v>
+        <v>1186.8900000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.187000</v>
+        <v>-150.18700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>17688.331800</v>
+        <v>17688.3318</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.913425</v>
+        <v>4.9134250000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1194.240000</v>
+        <v>1194.24</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.974000</v>
+        <v>-127.974</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>17698.546908</v>
       </c>
       <c r="V3" s="1">
-        <v>4.916263</v>
+        <v>4.9162629999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1201.120000</v>
+        <v>1201.1199999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.147000</v>
+        <v>-107.14700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>17709.006196</v>
+        <v>17709.006195999998</v>
       </c>
       <c r="AA3" s="1">
         <v>4.919168</v>
       </c>
       <c r="AB3" s="1">
-        <v>1208.470000</v>
+        <v>1208.47</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.105500</v>
+        <v>-90.105500000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>17719.579792</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.922105</v>
+        <v>4.9221050000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>1212.850000</v>
+        <v>1212.8499999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.715600</v>
+        <v>-85.715599999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>17730.365760</v>
+        <v>17730.365760000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.925102</v>
+        <v>4.9251019999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1219.800000</v>
+        <v>1219.8</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.099500</v>
+        <v>-89.099500000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>17740.943938</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.928040</v>
+        <v>4.9280400000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.092000</v>
+        <v>-101.092</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>17751.946196</v>
+        <v>17751.946196000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.931096</v>
+        <v>4.9310960000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.464000</v>
+        <v>-120.464</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>17762.661302</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.934073</v>
+        <v>4.9340729999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.939000</v>
+        <v>-137.93899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>17773.618922</v>
+        <v>17773.618922000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.937116</v>
+        <v>4.9371159999999996</v>
       </c>
       <c r="BF3" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.821000</v>
+        <v>-219.821</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>17785.030375</v>
+        <v>17785.030374999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.940286</v>
+        <v>4.9402860000000004</v>
       </c>
       <c r="BK3" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="BL3" s="1">
-        <v>-356.487000</v>
+        <v>-356.48700000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>17795.918060</v>
+        <v>17795.91806</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.943311</v>
+        <v>4.9433109999999996</v>
       </c>
       <c r="BP3" s="1">
-        <v>1468.550000</v>
+        <v>1468.55</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.213000</v>
+        <v>-579.21299999999997</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>17806.303261</v>
+        <v>17806.303261000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.946195</v>
+        <v>4.9461950000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1599.960000</v>
+        <v>1599.96</v>
       </c>
       <c r="BV3" s="1">
-        <v>-831.618000</v>
+        <v>-831.61800000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>17816.954846</v>
+        <v>17816.954846000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.949154</v>
+        <v>4.9491540000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1751.310000</v>
+        <v>1751.31</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1105.960000</v>
+        <v>-1105.96</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>17828.069199</v>
+        <v>17828.069199000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.952241</v>
+        <v>4.9522409999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>2168.630000</v>
+        <v>2168.63</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1772.340000</v>
+        <v>-1772.34</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>17658.008880</v>
+        <v>17658.008880000001</v>
       </c>
       <c r="B4" s="1">
-        <v>4.905002</v>
+        <v>4.9050019999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>1138.340000</v>
+        <v>1138.3399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-259.089000</v>
+        <v>-259.089</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>17668.022147</v>
       </c>
       <c r="G4" s="1">
-        <v>4.907784</v>
+        <v>4.9077840000000004</v>
       </c>
       <c r="H4" s="1">
-        <v>1159.910000</v>
+        <v>1159.9100000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.016000</v>
+        <v>-217.01599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>17678.497125</v>
+        <v>17678.497125000002</v>
       </c>
       <c r="L4" s="1">
-        <v>4.910694</v>
+        <v>4.9106940000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>1186.740000</v>
+        <v>1186.74</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.368000</v>
+        <v>-150.36799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>17688.678505</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.913522</v>
+        <v>4.9135220000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>1194.260000</v>
+        <v>1194.26</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.028000</v>
+        <v>-128.02799999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>17698.893114</v>
+        <v>17698.893113999999</v>
       </c>
       <c r="V4" s="1">
-        <v>4.916359</v>
+        <v>4.9163589999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1201.140000</v>
+        <v>1201.1400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.141000</v>
+        <v>-107.14100000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>17709.352749</v>
+        <v>17709.352749000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.919265</v>
+        <v>4.9192650000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1208.370000</v>
+        <v>1208.3699999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.057800</v>
+        <v>-90.0578</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>17720.265726</v>
+        <v>17720.265726000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.922296</v>
+        <v>4.9222960000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.681000</v>
+        <v>-85.680999999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>17730.711969</v>
@@ -1100,1041 +1516,1041 @@
         <v>4.925198</v>
       </c>
       <c r="AL4" s="1">
-        <v>1219.800000</v>
+        <v>1219.8</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.115400</v>
+        <v>-89.115399999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>17741.304034</v>
+        <v>17741.304034000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.928140</v>
+        <v>4.92814</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.089000</v>
+        <v>-101.089</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>17752.314260</v>
+        <v>17752.314259999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.931198</v>
+        <v>4.9311980000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.450000</v>
+        <v>-120.45</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>17763.349718</v>
+        <v>17763.349718000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.934264</v>
+        <v>4.9342639999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.957000</v>
+        <v>-137.95699999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>17774.308861</v>
+        <v>17774.308861000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.937308</v>
+        <v>4.9373079999999998</v>
       </c>
       <c r="BF4" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.831000</v>
+        <v>-219.83099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>17785.501048</v>
+        <v>17785.501047999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.940417</v>
+        <v>4.9404170000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1355.000000</v>
+        <v>1355</v>
       </c>
       <c r="BL4" s="1">
-        <v>-356.371000</v>
+        <v>-356.37099999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>17796.344121</v>
+        <v>17796.344120999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.943429</v>
+        <v>4.9434290000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1468.500000</v>
+        <v>1468.5</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.208000</v>
+        <v>-579.20799999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>17806.715931</v>
+        <v>17806.715930999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.946310</v>
+        <v>4.9463100000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1599.870000</v>
+        <v>1599.87</v>
       </c>
       <c r="BV4" s="1">
-        <v>-831.696000</v>
+        <v>-831.69600000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>17817.383885</v>
+        <v>17817.383884999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.949273</v>
+        <v>4.9492729999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1751.180000</v>
+        <v>1751.18</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1105.880000</v>
+        <v>-1105.8800000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>17828.613311</v>
+        <v>17828.613311000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.952393</v>
+        <v>4.9523929999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2168.760000</v>
+        <v>2168.7600000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1774.730000</v>
+        <v>-1774.73</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>17658.298048</v>
+        <v>17658.298048000001</v>
       </c>
       <c r="B5" s="1">
-        <v>4.905083</v>
+        <v>4.9050830000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>1138.180000</v>
+        <v>1138.18</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.905000</v>
+        <v>-258.90499999999997</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>17668.364850</v>
+        <v>17668.364850000002</v>
       </c>
       <c r="G5" s="1">
-        <v>4.907879</v>
+        <v>4.9078790000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1159.620000</v>
+        <v>1159.6199999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.263000</v>
+        <v>-217.26300000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>17678.843829</v>
+        <v>17678.843829000001</v>
       </c>
       <c r="L5" s="1">
-        <v>4.910790</v>
+        <v>4.9107900000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>1186.450000</v>
+        <v>1186.45</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.543000</v>
+        <v>-150.54300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>17689.027193</v>
+        <v>17689.027193000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.913619</v>
+        <v>4.9136189999999997</v>
       </c>
       <c r="R5" s="1">
-        <v>1194.270000</v>
+        <v>1194.27</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.038000</v>
+        <v>-128.03800000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>17699.580569</v>
+        <v>17699.580569000002</v>
       </c>
       <c r="V5" s="1">
-        <v>4.916550</v>
+        <v>4.91655</v>
       </c>
       <c r="W5" s="1">
-        <v>1201.140000</v>
+        <v>1201.1400000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.038000</v>
+        <v>-107.038</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>17710.123037</v>
+        <v>17710.123037000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.919479</v>
+        <v>4.9194789999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1208.260000</v>
+        <v>1208.26</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.061600</v>
+        <v>-90.061599999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>17720.611470</v>
+        <v>17720.61147</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.922392</v>
+        <v>4.9223920000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>1212.870000</v>
+        <v>1212.8699999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.647300</v>
+        <v>-85.647300000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>17731.061680</v>
+        <v>17731.061679999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.925295</v>
+        <v>4.9252950000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1219.820000</v>
+        <v>1219.82</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.140400</v>
+        <v>-89.1404</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>17741.665153</v>
+        <v>17741.665153000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.928240</v>
+        <v>4.9282399999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.089000</v>
+        <v>-101.089</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>17752.985831</v>
+        <v>17752.985831000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.931385</v>
+        <v>4.9313849999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.443000</v>
+        <v>-120.443</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>17763.757428</v>
+        <v>17763.757428000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.934377</v>
+        <v>4.9343769999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>1245.910000</v>
+        <v>1245.9100000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.924000</v>
+        <v>-137.92400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>17774.727942</v>
+        <v>17774.727942000001</v>
       </c>
       <c r="BE5" s="1">
         <v>4.937424</v>
       </c>
       <c r="BF5" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.835000</v>
+        <v>-219.83500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>17785.876056</v>
+        <v>17785.876056000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.940521</v>
+        <v>4.9405210000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1354.990000</v>
+        <v>1354.99</v>
       </c>
       <c r="BL5" s="1">
-        <v>-356.466000</v>
+        <v>-356.46600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>17796.740393</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.943539</v>
+        <v>4.9435390000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1468.600000</v>
+        <v>1468.6</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.213000</v>
+        <v>-579.21299999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>17807.145004</v>
+        <v>17807.145004000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.946429</v>
+        <v>4.9464290000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1599.780000</v>
+        <v>1599.78</v>
       </c>
       <c r="BV5" s="1">
-        <v>-831.741000</v>
+        <v>-831.74099999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>17817.814910</v>
+        <v>17817.814910000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.949393</v>
+        <v>4.9493929999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1751.210000</v>
+        <v>1751.21</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1105.900000</v>
+        <v>-1105.9000000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>17829.152958</v>
+        <v>17829.152957999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.952542</v>
+        <v>4.9525420000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>2170.270000</v>
+        <v>2170.27</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1772.020000</v>
+        <v>-1772.02</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>17658.641775</v>
       </c>
       <c r="B6" s="1">
-        <v>4.905178</v>
+        <v>4.9051780000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>1138.200000</v>
+        <v>1138.2</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.975000</v>
+        <v>-258.97500000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>17668.708083</v>
+        <v>17668.708083000001</v>
       </c>
       <c r="G6" s="1">
-        <v>4.907974</v>
+        <v>4.9079740000000003</v>
       </c>
       <c r="H6" s="1">
-        <v>1159.380000</v>
+        <v>1159.3800000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-216.900000</v>
+        <v>-216.9</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>17679.533798</v>
       </c>
       <c r="L6" s="1">
-        <v>4.910982</v>
+        <v>4.9109819999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>1186.790000</v>
+        <v>1186.79</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.430000</v>
+        <v>-150.43</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>17689.721591</v>
+        <v>17689.721591000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.913812</v>
+        <v>4.9138120000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.050000</v>
+        <v>-128.05000000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>17699.926281</v>
       </c>
       <c r="V6" s="1">
-        <v>4.916646</v>
+        <v>4.9166460000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1201.240000</v>
+        <v>1201.24</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.089000</v>
+        <v>-107.089</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>17710.393355</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.919554</v>
+        <v>4.9195539999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>1208.470000</v>
+        <v>1208.47</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.094500</v>
+        <v>-90.094499999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>17720.955164</v>
+        <v>17720.955163999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.922488</v>
+        <v>4.9224880000000004</v>
       </c>
       <c r="AG6" s="1">
-        <v>1212.850000</v>
+        <v>1212.8499999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.644700</v>
+        <v>-85.6447</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>17731.724831</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.925479</v>
+        <v>4.9254790000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1219.810000</v>
+        <v>1219.81</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.120800</v>
+        <v>-89.120800000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>17742.350099</v>
+        <v>17742.350098999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.928431</v>
+        <v>4.9284309999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.081000</v>
+        <v>-101.081</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>17753.408402</v>
+        <v>17753.408402000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.931502</v>
+        <v>4.9315020000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.486000</v>
+        <v>-120.486</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>17764.114083</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.934476</v>
+        <v>4.9344760000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.944000</v>
+        <v>-137.94399999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>17775.120773</v>
+        <v>17775.120772999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.937534</v>
+        <v>4.9375340000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.826000</v>
+        <v>-219.82599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>17786.279271</v>
+        <v>17786.279270999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.940633</v>
+        <v>4.9406330000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1355.000000</v>
+        <v>1355</v>
       </c>
       <c r="BL6" s="1">
-        <v>-356.383000</v>
+        <v>-356.38299999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>17797.161994</v>
+        <v>17797.161993999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.943656</v>
+        <v>4.9436559999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1468.500000</v>
+        <v>1468.5</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.249000</v>
+        <v>-579.24900000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>17807.573019</v>
+        <v>17807.573018999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.946548</v>
+        <v>4.9465479999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1599.700000</v>
+        <v>1599.7</v>
       </c>
       <c r="BV6" s="1">
-        <v>-831.803000</v>
+        <v>-831.803</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>17818.225597</v>
+        <v>17818.225597000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.949507</v>
+        <v>4.9495069999999997</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1751.190000</v>
+        <v>1751.19</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1105.950000</v>
+        <v>-1105.95</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>17829.693134</v>
+        <v>17829.693134000001</v>
       </c>
       <c r="CD6" s="1">
         <v>4.952693</v>
       </c>
       <c r="CE6" s="1">
-        <v>2168.140000</v>
+        <v>2168.14</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1773.270000</v>
+        <v>-1773.27</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>17658.985503</v>
       </c>
       <c r="B7" s="1">
-        <v>4.905274</v>
+        <v>4.9052740000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1138.230000</v>
+        <v>1138.23</v>
       </c>
       <c r="D7" s="1">
-        <v>-259.162000</v>
+        <v>-259.16199999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>17669.399011</v>
+        <v>17669.399011000001</v>
       </c>
       <c r="G7" s="1">
-        <v>4.908166</v>
+        <v>4.9081659999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>1159.600000</v>
+        <v>1159.5999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.735000</v>
+        <v>-216.73500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>17679.879972</v>
+        <v>17679.879971999999</v>
       </c>
       <c r="L7" s="1">
-        <v>4.911078</v>
+        <v>4.9110779999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1186.820000</v>
+        <v>1186.82</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.311000</v>
+        <v>-150.31100000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>17690.072299</v>
+        <v>17690.072298999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.913909</v>
+        <v>4.9139090000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>1194.200000</v>
+        <v>1194.2</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.037000</v>
+        <v>-128.03700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>17700.269049</v>
+        <v>17700.269048999999</v>
       </c>
       <c r="V7" s="1">
         <v>4.916741</v>
       </c>
       <c r="W7" s="1">
-        <v>1201.180000</v>
+        <v>1201.18</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.220000</v>
+        <v>-107.22</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>17711.049104</v>
+        <v>17711.049104000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.919736</v>
+        <v>4.9197360000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>1208.350000</v>
+        <v>1208.3499999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.151000</v>
+        <v>-90.150999999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>17721.616861</v>
+        <v>17721.616860999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.922671</v>
+        <v>4.9226710000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>1212.950000</v>
+        <v>1212.95</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.837200</v>
+        <v>-85.837199999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>17732.106719</v>
+        <v>17732.106718999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.925585</v>
+        <v>4.9255849999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.128800</v>
+        <v>-89.128799999999998</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>17742.773681</v>
+        <v>17742.773680999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.928548</v>
+        <v>4.9285480000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.104000</v>
+        <v>-101.104</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>17753.789330</v>
+        <v>17753.78933</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.931608</v>
+        <v>4.9316079999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.436000</v>
+        <v>-120.43600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>17764.474643</v>
+        <v>17764.474643000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.934576</v>
+        <v>4.9345759999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.852000</v>
+        <v>-137.852</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>17775.480870</v>
+        <v>17775.480869999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.937634</v>
+        <v>4.9376340000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1285.800000</v>
+        <v>1285.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.843000</v>
+        <v>-219.84299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>17786.695911</v>
+        <v>17786.695910999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.940749</v>
+        <v>4.9407490000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1355.040000</v>
+        <v>1355.04</v>
       </c>
       <c r="BL7" s="1">
-        <v>-356.476000</v>
+        <v>-356.476</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>17797.559288</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.943766</v>
+        <v>4.9437660000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1468.560000</v>
+        <v>1468.56</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.189000</v>
+        <v>-579.18899999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>17807.987210</v>
+        <v>17807.987209999999</v>
       </c>
       <c r="BT7" s="1">
         <v>4.946663</v>
       </c>
       <c r="BU7" s="1">
-        <v>1599.590000</v>
+        <v>1599.59</v>
       </c>
       <c r="BV7" s="1">
-        <v>-831.746000</v>
+        <v>-831.74599999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>17818.653644</v>
+        <v>17818.653644000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.949626</v>
+        <v>4.9496260000000003</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1751.130000</v>
+        <v>1751.13</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1105.910000</v>
+        <v>-1105.9100000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>17830.231261</v>
+        <v>17830.231261000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.952842</v>
+        <v>4.9528420000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>2170.390000</v>
+        <v>2170.39</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1774.440000</v>
+        <v>-1774.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>17659.664030</v>
+        <v>17659.66403</v>
       </c>
       <c r="B8" s="1">
         <v>4.905462</v>
       </c>
       <c r="C8" s="1">
-        <v>1138.210000</v>
+        <v>1138.21</v>
       </c>
       <c r="D8" s="1">
-        <v>-259.052000</v>
+        <v>-259.05200000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>17669.750176</v>
+        <v>17669.750176000001</v>
       </c>
       <c r="G8" s="1">
         <v>4.908264</v>
       </c>
       <c r="H8" s="1">
-        <v>1159.870000</v>
+        <v>1159.8699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.935000</v>
+        <v>-216.935</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>17680.225387</v>
+        <v>17680.225386999999</v>
       </c>
       <c r="L8" s="1">
-        <v>4.911174</v>
+        <v>4.9111739999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1186.650000</v>
+        <v>1186.6500000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.174000</v>
+        <v>-150.17400000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>17690.419996</v>
+        <v>17690.419996000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.914006</v>
+        <v>4.9140059999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>1194.220000</v>
+        <v>1194.22</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.979000</v>
+        <v>-127.979</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>17700.910872</v>
       </c>
       <c r="V8" s="1">
-        <v>4.916920</v>
+        <v>4.9169200000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>1201.130000</v>
+        <v>1201.1300000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.170000</v>
+        <v>-107.17</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>17711.440443</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.919845</v>
+        <v>4.9198449999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.199200</v>
+        <v>-90.199200000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>17721.986348</v>
+        <v>17721.986347999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.922774</v>
+        <v>4.9227740000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>1212.960000</v>
+        <v>1212.96</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.562500</v>
+        <v>-85.5625</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>17732.457390</v>
+        <v>17732.45739</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.925683</v>
+        <v>4.9256830000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.127600</v>
+        <v>-89.127600000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>17743.158613</v>
@@ -2143,58 +2559,58 @@
         <v>4.928655</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.074000</v>
+        <v>-101.074</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>17754.156867</v>
+        <v>17754.156867000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.931710</v>
+        <v>4.9317099999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1237.550000</v>
+        <v>1237.55</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.476000</v>
+        <v>-120.476</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>17764.910659</v>
+        <v>17764.910659000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.934697</v>
+        <v>4.9346969999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.817000</v>
+        <v>-137.81700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>17775.913876</v>
+        <v>17775.913875999999</v>
       </c>
       <c r="BE8" s="1">
         <v>4.937754</v>
       </c>
       <c r="BF8" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.815000</v>
+        <v>-219.815</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>17787.031207</v>
@@ -2203,270 +2619,270 @@
         <v>4.940842</v>
       </c>
       <c r="BK8" s="1">
-        <v>1354.970000</v>
+        <v>1354.97</v>
       </c>
       <c r="BL8" s="1">
-        <v>-356.395000</v>
+        <v>-356.39499999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>17797.981507</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.943884</v>
+        <v>4.9438839999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1468.570000</v>
+        <v>1468.57</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.271000</v>
+        <v>-579.27099999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>17808.414729</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.946782</v>
+        <v>4.9467819999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1599.420000</v>
+        <v>1599.42</v>
       </c>
       <c r="BV8" s="1">
-        <v>-831.771000</v>
+        <v>-831.77099999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>17819.069787</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.949742</v>
+        <v>4.9497419999999996</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1751.170000</v>
+        <v>1751.17</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1105.890000</v>
+        <v>-1105.8900000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>17830.771901</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.952992</v>
+        <v>4.9529920000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2168.440000</v>
+        <v>2168.44</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1772.230000</v>
+        <v>-1772.23</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>17660.007262</v>
+        <v>17660.007261999999</v>
       </c>
       <c r="B9" s="1">
-        <v>4.905558</v>
+        <v>4.9055580000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1138.440000</v>
+        <v>1138.44</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.749000</v>
+        <v>-258.74900000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>17670.092756</v>
+        <v>17670.092755999998</v>
       </c>
       <c r="G9" s="1">
-        <v>4.908359</v>
+        <v>4.9083589999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1160.060000</v>
+        <v>1160.06</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.474000</v>
+        <v>-216.47399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>17680.881393</v>
       </c>
       <c r="L9" s="1">
-        <v>4.911356</v>
+        <v>4.9113559999999996</v>
       </c>
       <c r="M9" s="1">
-        <v>1186.650000</v>
+        <v>1186.6500000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.379000</v>
+        <v>-150.37899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>17691.080132</v>
+        <v>17691.080131999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.914189</v>
+        <v>4.9141890000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>1194.300000</v>
+        <v>1194.3</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.015000</v>
+        <v>-128.01499999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>17701.298711</v>
+        <v>17701.298710999999</v>
       </c>
       <c r="V9" s="1">
         <v>4.917027</v>
       </c>
       <c r="W9" s="1">
-        <v>1201.280000</v>
+        <v>1201.28</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.118000</v>
+        <v>-107.11799999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>17711.789594</v>
+        <v>17711.789594000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.919942</v>
+        <v>4.9199419999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1208.310000</v>
+        <v>1208.31</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.114500</v>
+        <v>-90.114500000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>17722.327099</v>
+        <v>17722.327098999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.922869</v>
+        <v>4.9228690000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.760100</v>
+        <v>-85.760099999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>17732.803844</v>
+        <v>17732.803843999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.925779</v>
+        <v>4.9257790000000004</v>
       </c>
       <c r="AL9" s="1">
-        <v>1219.820000</v>
+        <v>1219.82</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.086900</v>
+        <v>-89.0869</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>17743.766671</v>
+        <v>17743.766671000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.928824</v>
+        <v>4.9288239999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.112000</v>
+        <v>-101.11199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>17754.565104</v>
+        <v>17754.565104000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.931824</v>
+        <v>4.9318239999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.459000</v>
+        <v>-120.459</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>17765.191892</v>
+        <v>17765.191891999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.934776</v>
+        <v>4.9347760000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.843000</v>
+        <v>-137.84299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>17776.204036</v>
+        <v>17776.204035999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>4.937834</v>
+        <v>4.9378339999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.803000</v>
+        <v>-219.803</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>17787.406182</v>
+        <v>17787.406181999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.940946</v>
+        <v>4.9409460000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1355.060000</v>
+        <v>1355.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-356.380000</v>
+        <v>-356.38</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>17798.376731</v>
@@ -2475,575 +2891,575 @@
         <v>4.943994</v>
       </c>
       <c r="BP9" s="1">
-        <v>1468.580000</v>
+        <v>1468.58</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.194000</v>
+        <v>-579.19399999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>17808.843783</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.946901</v>
+        <v>4.9469010000000004</v>
       </c>
       <c r="BU9" s="1">
-        <v>1599.330000</v>
+        <v>1599.33</v>
       </c>
       <c r="BV9" s="1">
-        <v>-831.620000</v>
+        <v>-831.62</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>17819.522170</v>
+        <v>17819.52217</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.949867</v>
+        <v>4.9498670000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1751.290000</v>
+        <v>1751.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1105.780000</v>
+        <v>-1105.78</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>17831.310091</v>
+        <v>17831.310090999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.953142</v>
+        <v>4.9531419999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>2169.000000</v>
+        <v>2169</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1774.800000</v>
+        <v>-1774.8</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>17660.351485</v>
+        <v>17660.351484999999</v>
       </c>
       <c r="B10" s="1">
         <v>4.905653</v>
       </c>
       <c r="C10" s="1">
-        <v>1137.970000</v>
+        <v>1137.97</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.915000</v>
+        <v>-258.91500000000002</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>17670.749152</v>
       </c>
       <c r="G10" s="1">
-        <v>4.908541</v>
+        <v>4.9085409999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1159.390000</v>
+        <v>1159.3900000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.364000</v>
+        <v>-216.364</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>17681.258555</v>
       </c>
       <c r="L10" s="1">
-        <v>4.911461</v>
+        <v>4.9114610000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1186.650000</v>
+        <v>1186.6500000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.038000</v>
+        <v>-150.03800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>17691.467508</v>
+        <v>17691.467508000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.914297</v>
+        <v>4.9142970000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>1194.280000</v>
+        <v>1194.28</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.080000</v>
+        <v>-128.08000000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>17701.641974</v>
+        <v>17701.641973999998</v>
       </c>
       <c r="V10" s="1">
-        <v>4.917123</v>
+        <v>4.9171230000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1201.130000</v>
+        <v>1201.1300000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.226000</v>
+        <v>-107.226</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>17712.140297</v>
+        <v>17712.140297000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.920039</v>
+        <v>4.9200390000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1208.480000</v>
+        <v>1208.48</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.048800</v>
+        <v>-90.0488</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>17722.670828</v>
+        <v>17722.670827999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.922964</v>
+        <v>4.9229640000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>1212.820000</v>
+        <v>1212.82</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.642900</v>
+        <v>-85.642899999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>17733.242097</v>
+        <v>17733.242096999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.925901</v>
+        <v>4.9259009999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>1219.800000</v>
+        <v>1219.8</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.132700</v>
+        <v>-89.1327</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>17743.877811</v>
+        <v>17743.877810999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.928855</v>
+        <v>4.9288550000000004</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.095000</v>
+        <v>-101.095</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>17754.881520</v>
+        <v>17754.881519999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.931912</v>
+        <v>4.9319119999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.450000</v>
+        <v>-120.45</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>17765.550468</v>
+        <v>17765.550468000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.934875</v>
+        <v>4.9348749999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.826000</v>
+        <v>-137.82599999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>17776.564627</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.937935</v>
+        <v>4.9379350000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.846000</v>
+        <v>-219.846</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>17787.781653</v>
+        <v>17787.781652999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.941050</v>
+        <v>4.9410499999999997</v>
       </c>
       <c r="BK10" s="1">
-        <v>1354.990000</v>
+        <v>1354.99</v>
       </c>
       <c r="BL10" s="1">
-        <v>-356.404000</v>
+        <v>-356.404</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>17798.799782</v>
+        <v>17798.799781999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.944111</v>
+        <v>4.9441110000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1468.580000</v>
+        <v>1468.58</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.183000</v>
+        <v>-579.18299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>17809.271816</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.947020</v>
+        <v>4.9470200000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1599.260000</v>
+        <v>1599.26</v>
       </c>
       <c r="BV10" s="1">
-        <v>-831.509000</v>
+        <v>-831.50900000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>17819.972506</v>
+        <v>17819.972505999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.949992</v>
+        <v>4.9499919999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1751.250000</v>
+        <v>1751.25</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1105.860000</v>
+        <v>-1105.8599999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>17831.850239</v>
+        <v>17831.850238999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.953292</v>
+        <v>4.9532920000000003</v>
       </c>
       <c r="CE10" s="1">
-        <v>2170.000000</v>
+        <v>2170</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1772.230000</v>
+        <v>-1772.23</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>17661.034974</v>
+        <v>17661.034973999998</v>
       </c>
       <c r="B11" s="1">
         <v>4.905843</v>
       </c>
       <c r="C11" s="1">
-        <v>1138.030000</v>
+        <v>1138.03</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.841000</v>
+        <v>-258.84100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>17671.126239</v>
+        <v>17671.126239000001</v>
       </c>
       <c r="G11" s="1">
-        <v>4.908646</v>
+        <v>4.9086460000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1160.060000</v>
+        <v>1160.06</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.234000</v>
+        <v>-217.23400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>17681.606049</v>
+        <v>17681.606049000002</v>
       </c>
       <c r="L11" s="1">
-        <v>4.911557</v>
+        <v>4.9115570000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1186.370000</v>
+        <v>1186.3699999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.157000</v>
+        <v>-150.15700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>17691.816723</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.914394</v>
+        <v>4.9143939999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1194.210000</v>
+        <v>1194.21</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.054000</v>
+        <v>-128.054</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>17701.988182</v>
+        <v>17701.988182000001</v>
       </c>
       <c r="V11" s="1">
-        <v>4.917219</v>
+        <v>4.9172190000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1201.210000</v>
+        <v>1201.21</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.116000</v>
+        <v>-107.116</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>17712.547976</v>
+        <v>17712.547976000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.920152</v>
+        <v>4.9201519999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1208.550000</v>
+        <v>1208.55</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.088000</v>
+        <v>-90.087999999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>17723.085483</v>
+        <v>17723.085482999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.923079</v>
+        <v>4.9230790000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.517600</v>
+        <v>-85.517600000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>17733.501965</v>
+        <v>17733.501964999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.925973</v>
+        <v>4.9259729999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.108000</v>
+        <v>-89.108000000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>17744.221540</v>
+        <v>17744.221539999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.928950</v>
+        <v>4.9289500000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.108000</v>
+        <v>-101.108</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>17755.250048</v>
+        <v>17755.250048000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.932014</v>
+        <v>4.9320139999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.485000</v>
+        <v>-120.485</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>17765.909073</v>
+        <v>17765.909072999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.934975</v>
+        <v>4.9349749999999997</v>
       </c>
       <c r="BA11" s="1">
-        <v>1245.930000</v>
+        <v>1245.93</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.831000</v>
+        <v>-137.83099999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>17777.266648</v>
+        <v>17777.266648000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.938130</v>
+        <v>4.9381300000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1285.760000</v>
+        <v>1285.76</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.822000</v>
+        <v>-219.822</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>17788.553923</v>
+        <v>17788.553922999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.941265</v>
+        <v>4.9412649999999996</v>
       </c>
       <c r="BK11" s="1">
-        <v>1355.040000</v>
+        <v>1355.04</v>
       </c>
       <c r="BL11" s="1">
-        <v>-356.449000</v>
+        <v>-356.44900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>17799.195127</v>
+        <v>17799.195126999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.944221</v>
+        <v>4.9442209999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1468.550000</v>
+        <v>1468.55</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.231000</v>
+        <v>-579.23099999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>17809.687005</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.947135</v>
+        <v>4.9471350000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>1599.180000</v>
+        <v>1599.18</v>
       </c>
       <c r="BV11" s="1">
-        <v>-831.508000</v>
+        <v>-831.50800000000004</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>17820.428329</v>
+        <v>17820.428328999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.950119</v>
+        <v>4.9501189999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1751.170000</v>
+        <v>1751.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1105.790000</v>
+        <v>-1105.79</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>17832.695096</v>
+        <v>17832.695095999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.953526</v>
+        <v>4.9535260000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>2169.640000</v>
+        <v>2169.64</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1774.490000</v>
+        <v>-1774.49</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>17661.381707</v>
       </c>
@@ -3051,256 +3467,256 @@
         <v>4.905939</v>
       </c>
       <c r="C12" s="1">
-        <v>1138.100000</v>
+        <v>1138.0999999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-259.094000</v>
+        <v>-259.09399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>17671.472286</v>
       </c>
       <c r="G12" s="1">
-        <v>4.908742</v>
+        <v>4.9087420000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1160.100000</v>
+        <v>1160.0999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-216.795000</v>
+        <v>-216.79499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>17681.950805</v>
       </c>
       <c r="L12" s="1">
-        <v>4.911653</v>
+        <v>4.9116530000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>1186.490000</v>
+        <v>1186.49</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.065000</v>
+        <v>-150.065</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>17692.163930</v>
+        <v>17692.163929999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.914490</v>
+        <v>4.9144899999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.990000</v>
+        <v>-127.99</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>17702.406774</v>
+        <v>17702.406773999999</v>
       </c>
       <c r="V12" s="1">
-        <v>4.917335</v>
+        <v>4.9173349999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1201.240000</v>
+        <v>1201.24</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.149000</v>
+        <v>-107.149</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>17712.841113</v>
+        <v>17712.841112999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.920234</v>
+        <v>4.9202339999999998</v>
       </c>
       <c r="AB12" s="1">
-        <v>1208.450000</v>
+        <v>1208.45</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.111600</v>
+        <v>-90.111599999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>17723.384074</v>
+        <v>17723.384074000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.923162</v>
+        <v>4.9231619999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>1212.870000</v>
+        <v>1212.8699999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.804100</v>
+        <v>-85.804100000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>17733.850171</v>
+        <v>17733.850170999998</v>
       </c>
       <c r="AK12" s="1">
         <v>4.926069</v>
       </c>
       <c r="AL12" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.104200</v>
+        <v>-89.104200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>17744.568712</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.929047</v>
+        <v>4.9290469999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1227.620000</v>
+        <v>1227.6199999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.114000</v>
+        <v>-101.114</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>17755.614607</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.932115</v>
+        <v>4.9321149999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.467000</v>
+        <v>-120.467</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>17766.627281</v>
+        <v>17766.627281000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.935174</v>
+        <v>4.9351739999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1245.910000</v>
+        <v>1245.9100000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.843000</v>
+        <v>-137.84299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>17777.645938</v>
+        <v>17777.645938000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.938235</v>
+        <v>4.9382349999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1285.820000</v>
+        <v>1285.82</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.809000</v>
+        <v>-219.809</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>17788.930387</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.941370</v>
+        <v>4.94137</v>
       </c>
       <c r="BK12" s="1">
-        <v>1354.980000</v>
+        <v>1354.98</v>
       </c>
       <c r="BL12" s="1">
-        <v>-356.409000</v>
+        <v>-356.40899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>17799.616724</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.944338</v>
+        <v>4.9443380000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1468.560000</v>
+        <v>1468.56</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.240000</v>
+        <v>-579.24</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>17810.138364</v>
+        <v>17810.138363999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.947261</v>
+        <v>4.9472610000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1599.230000</v>
+        <v>1599.23</v>
       </c>
       <c r="BV12" s="1">
-        <v>-831.281000</v>
+        <v>-831.28099999999995</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>17821.188696</v>
+        <v>17821.188696000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.950330</v>
+        <v>4.9503300000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1751.080000</v>
+        <v>1751.08</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1105.880000</v>
+        <v>-1105.8800000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>17832.928287</v>
+        <v>17832.928286999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.953591</v>
+        <v>4.9535910000000003</v>
       </c>
       <c r="CE12" s="1">
-        <v>2169.560000</v>
+        <v>2169.56</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1774.590000</v>
+        <v>-1774.59</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>17661.721963</v>
       </c>
@@ -3308,465 +3724,465 @@
         <v>4.906034</v>
       </c>
       <c r="C13" s="1">
-        <v>1138.400000</v>
+        <v>1138.4000000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.862000</v>
+        <v>-258.86200000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>17671.807086</v>
+        <v>17671.807086000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.908835</v>
+        <v>4.9088349999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1159.280000</v>
+        <v>1159.28</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.842000</v>
+        <v>-216.84200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>17682.365458</v>
       </c>
       <c r="L13" s="1">
-        <v>4.911768</v>
+        <v>4.9117680000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>1186.790000</v>
+        <v>1186.79</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.328000</v>
+        <v>-150.328</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>17692.587017</v>
+        <v>17692.587017000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.914608</v>
+        <v>4.9146080000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1194.220000</v>
+        <v>1194.22</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.988000</v>
+        <v>-127.988</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>17702.705861</v>
+        <v>17702.705860999999</v>
       </c>
       <c r="V13" s="1">
-        <v>4.917418</v>
+        <v>4.9174179999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1201.120000</v>
+        <v>1201.1199999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.148000</v>
+        <v>-107.148</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>17713.190823</v>
+        <v>17713.190823000001</v>
       </c>
       <c r="AA13" s="1">
         <v>4.920331</v>
       </c>
       <c r="AB13" s="1">
-        <v>1208.370000</v>
+        <v>1208.3699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.149800</v>
+        <v>-90.149799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>17723.722345</v>
+        <v>17723.722344999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.923256</v>
+        <v>4.9232560000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.728000</v>
+        <v>-85.727999999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>17734.200364</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.926167</v>
+        <v>4.9261670000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.116900</v>
+        <v>-89.116900000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>17745.301294</v>
+        <v>17745.301294000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.929250</v>
+        <v>4.9292499999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1227.640000</v>
+        <v>1227.6400000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.106000</v>
+        <v>-101.10599999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>17756.342240</v>
+        <v>17756.342240000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.932317</v>
+        <v>4.9323170000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.468000</v>
+        <v>-120.468</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>17766.985888</v>
+        <v>17766.985887999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.935274</v>
+        <v>4.9352739999999997</v>
       </c>
       <c r="BA13" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.816000</v>
+        <v>-137.816</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>17778.007527</v>
+        <v>17778.007527000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.938335</v>
+        <v>4.9383350000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.815000</v>
+        <v>-219.815</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>17789.303885</v>
+        <v>17789.303885000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.941473</v>
+        <v>4.9414730000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1355.040000</v>
+        <v>1355.04</v>
       </c>
       <c r="BL13" s="1">
-        <v>-356.449000</v>
+        <v>-356.44900000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>17800.320516</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.944533</v>
+        <v>4.9445329999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1468.570000</v>
+        <v>1468.57</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.206000</v>
+        <v>-579.20600000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>17810.564922</v>
+        <v>17810.564922000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.947379</v>
+        <v>4.9473789999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1599.220000</v>
+        <v>1599.22</v>
       </c>
       <c r="BV13" s="1">
-        <v>-831.203000</v>
+        <v>-831.20299999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>17821.326585</v>
+        <v>17821.326584999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.950368</v>
+        <v>4.9503680000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1751.160000</v>
+        <v>1751.16</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1106.010000</v>
+        <v>-1106.01</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>17833.445051</v>
+        <v>17833.445050999999</v>
       </c>
       <c r="CD13" s="1">
         <v>4.953735</v>
       </c>
       <c r="CE13" s="1">
-        <v>2170.230000</v>
+        <v>2170.23</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1772.800000</v>
+        <v>-1772.8</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>17662.141547</v>
+        <v>17662.141546999999</v>
       </c>
       <c r="B14" s="1">
-        <v>4.906150</v>
+        <v>4.9061500000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1138.500000</v>
+        <v>1138.5</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.868000</v>
+        <v>-258.86799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>17672.219764</v>
+        <v>17672.219764000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.908950</v>
+        <v>4.9089499999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1159.490000</v>
+        <v>1159.49</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.781000</v>
+        <v>-216.78100000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>17682.644671</v>
+        <v>17682.644670999998</v>
       </c>
       <c r="L14" s="1">
-        <v>4.911846</v>
+        <v>4.9118459999999997</v>
       </c>
       <c r="M14" s="1">
-        <v>1186.440000</v>
+        <v>1186.44</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.318000</v>
+        <v>-150.31800000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>17692.867218</v>
+        <v>17692.867217999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.914685</v>
+        <v>4.9146850000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>1194.250000</v>
+        <v>1194.25</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.005000</v>
+        <v>-128.005</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>17703.046614</v>
+        <v>17703.046613999999</v>
       </c>
       <c r="V14" s="1">
-        <v>4.917513</v>
+        <v>4.9175129999999996</v>
       </c>
       <c r="W14" s="1">
-        <v>1201.150000</v>
+        <v>1201.1500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.041000</v>
+        <v>-107.041</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>17713.540008</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.920428</v>
+        <v>4.9204280000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>1208.410000</v>
+        <v>1208.4100000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.033400</v>
+        <v>-90.0334</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>17724.065114</v>
+        <v>17724.065114000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.923351</v>
+        <v>4.9233510000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.665400</v>
+        <v>-85.665400000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>17734.895754</v>
+        <v>17734.895754000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.926360</v>
+        <v>4.9263599999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1219.800000</v>
+        <v>1219.8</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.105000</v>
+        <v>-89.105000000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>17745.691644</v>
+        <v>17745.691643999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.929359</v>
+        <v>4.9293589999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.095000</v>
+        <v>-101.095</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>17756.707331</v>
+        <v>17756.707331000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.932419</v>
+        <v>4.9324190000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.457000</v>
+        <v>-120.45699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>17767.343999</v>
+        <v>17767.343999000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.935373</v>
+        <v>4.9353730000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1245.930000</v>
+        <v>1245.93</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.841000</v>
+        <v>-137.84100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>17778.674646</v>
+        <v>17778.674645999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.938521</v>
+        <v>4.9385209999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1285.760000</v>
+        <v>1285.76</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.809000</v>
+        <v>-219.809</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>17790.019105</v>
+        <v>17790.019104999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.941672</v>
+        <v>4.9416719999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1355.050000</v>
+        <v>1355.05</v>
       </c>
       <c r="BL14" s="1">
-        <v>-356.442000</v>
+        <v>-356.44200000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>17800.449972</v>
+        <v>17800.449971999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.944569</v>
+        <v>4.9445690000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1468.560000</v>
+        <v>1468.56</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.259000</v>
+        <v>-579.25900000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>17810.962183</v>
@@ -3775,2102 +4191,2102 @@
         <v>4.947489</v>
       </c>
       <c r="BU14" s="1">
-        <v>1599.290000</v>
+        <v>1599.29</v>
       </c>
       <c r="BV14" s="1">
-        <v>-831.122000</v>
+        <v>-831.12199999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>17821.743225</v>
+        <v>17821.743224999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.950484</v>
+        <v>4.9504840000000003</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1751.280000</v>
+        <v>1751.28</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1105.760000</v>
+        <v>-1105.76</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>17833.967624</v>
+        <v>17833.967624000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.953880</v>
+        <v>4.9538799999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>2168.080000</v>
+        <v>2168.08</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1773.820000</v>
+        <v>-1773.82</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>17662.420804</v>
+        <v>17662.420804000001</v>
       </c>
       <c r="B15" s="1">
-        <v>4.906228</v>
+        <v>4.9062279999999996</v>
       </c>
       <c r="C15" s="1">
-        <v>1138.430000</v>
+        <v>1138.43</v>
       </c>
       <c r="D15" s="1">
-        <v>-259.062000</v>
+        <v>-259.06200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>17672.503470</v>
+        <v>17672.50347</v>
       </c>
       <c r="G15" s="1">
-        <v>4.909029</v>
+        <v>4.9090290000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>1159.490000</v>
+        <v>1159.49</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.099000</v>
+        <v>-217.09899999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>17682.990886</v>
       </c>
       <c r="L15" s="1">
-        <v>4.911942</v>
+        <v>4.9119419999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>1186.930000</v>
+        <v>1186.93</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.007000</v>
+        <v>-150.00700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>17693.214417</v>
+        <v>17693.214416999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.914782</v>
+        <v>4.9147819999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1194.280000</v>
+        <v>1194.28</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.986000</v>
+        <v>-127.986</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>17703.389876</v>
+        <v>17703.389876000001</v>
       </c>
       <c r="V15" s="1">
-        <v>4.917608</v>
+        <v>4.9176080000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>1201.190000</v>
+        <v>1201.19</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.103000</v>
+        <v>-107.10299999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>17714.236358</v>
+        <v>17714.236357999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.920621</v>
+        <v>4.9206209999999997</v>
       </c>
       <c r="AB15" s="1">
-        <v>1208.510000</v>
+        <v>1208.51</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.107800</v>
+        <v>-90.107799999999997</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>17724.755513</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.923543</v>
+        <v>4.9235429999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>1212.920000</v>
+        <v>1212.92</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.510300</v>
+        <v>-85.510300000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>17735.245935</v>
+        <v>17735.245934999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.926457</v>
+        <v>4.9264570000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.102800</v>
+        <v>-89.102800000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>17746.050252</v>
+        <v>17746.050252000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.929458</v>
+        <v>4.9294580000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.097000</v>
+        <v>-101.09699999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>17757.072381</v>
+        <v>17757.072381000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.932520</v>
+        <v>4.9325200000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.489000</v>
+        <v>-120.489</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>17768.016078</v>
+        <v>17768.016078000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.935560</v>
+        <v>4.9355599999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.857000</v>
+        <v>-137.857</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>17779.122498</v>
+        <v>17779.122498000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.938645</v>
+        <v>4.9386450000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.835000</v>
+        <v>-219.83500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>17790.455585</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.941793</v>
+        <v>4.9417929999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1354.970000</v>
+        <v>1354.97</v>
       </c>
       <c r="BL15" s="1">
-        <v>-356.406000</v>
+        <v>-356.40600000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>17800.860197</v>
+        <v>17800.860197000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.944683</v>
+        <v>4.9446830000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1468.580000</v>
+        <v>1468.58</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.259000</v>
+        <v>-579.25900000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>17811.372375</v>
+        <v>17811.372374999999</v>
       </c>
       <c r="BT15" s="1">
         <v>4.947603</v>
       </c>
       <c r="BU15" s="1">
-        <v>1599.220000</v>
+        <v>1599.22</v>
       </c>
       <c r="BV15" s="1">
-        <v>-831.053000</v>
+        <v>-831.053</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>17822.173255</v>
+        <v>17822.173255000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.950604</v>
+        <v>4.9506040000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1751.070000</v>
+        <v>1751.07</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1105.810000</v>
+        <v>-1105.81</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>17834.504824</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.954029</v>
+        <v>4.9540290000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2170.580000</v>
+        <v>2170.58</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1773.660000</v>
+        <v>-1773.66</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>17662.764554</v>
+        <v>17662.764554000001</v>
       </c>
       <c r="B16" s="1">
-        <v>4.906323</v>
+        <v>4.9063230000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1138.510000</v>
+        <v>1138.51</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.743000</v>
+        <v>-258.74299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>17672.848684</v>
+        <v>17672.848684000001</v>
       </c>
       <c r="G16" s="1">
-        <v>4.909125</v>
+        <v>4.9091250000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>1159.840000</v>
+        <v>1159.8399999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.846000</v>
+        <v>-216.846</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>17683.336592</v>
       </c>
       <c r="L16" s="1">
-        <v>4.912038</v>
+        <v>4.9120379999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1186.470000</v>
+        <v>1186.47</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.007000</v>
+        <v>-150.00700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>17693.803698</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.914945</v>
+        <v>4.9149450000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.051000</v>
+        <v>-128.05099999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>17704.078293</v>
+        <v>17704.078292999999</v>
       </c>
       <c r="V16" s="1">
-        <v>4.917800</v>
+        <v>4.9177999999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1201.260000</v>
+        <v>1201.26</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.177000</v>
+        <v>-107.17700000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>17714.585543</v>
+        <v>17714.585543000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.920718</v>
+        <v>4.9207179999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.140600</v>
+        <v>-90.140600000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>17725.097752</v>
+        <v>17725.097752000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.923638</v>
+        <v>4.9236380000000004</v>
       </c>
       <c r="AG16" s="1">
-        <v>1212.930000</v>
+        <v>1212.93</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.791900</v>
+        <v>-85.791899999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>17735.594618</v>
+        <v>17735.594617999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.926554</v>
+        <v>4.9265540000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>1219.820000</v>
+        <v>1219.82</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.118400</v>
+        <v>-89.118399999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>17746.716379</v>
+        <v>17746.716379000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.929643</v>
+        <v>4.9296430000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.092000</v>
+        <v>-101.092</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>17757.737981</v>
+        <v>17757.737980999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.932705</v>
+        <v>4.9327050000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.435000</v>
+        <v>-120.435</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>17768.452595</v>
+        <v>17768.452594999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.935681</v>
+        <v>4.9356809999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.830000</v>
+        <v>-137.83000000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>17779.482592</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.938745</v>
+        <v>4.9387449999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.812000</v>
+        <v>-219.81200000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>17790.859328</v>
+        <v>17790.859327999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.941905</v>
+        <v>4.9419050000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1355.000000</v>
+        <v>1355</v>
       </c>
       <c r="BL16" s="1">
-        <v>-356.473000</v>
+        <v>-356.47300000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>17801.247539</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.944791</v>
+        <v>4.9447910000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1468.500000</v>
+        <v>1468.5</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.222000</v>
+        <v>-579.22199999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>17811.796953</v>
+        <v>17811.796953000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.947721</v>
+        <v>4.9477209999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1599.370000</v>
+        <v>1599.37</v>
       </c>
       <c r="BV16" s="1">
-        <v>-830.858000</v>
+        <v>-830.85799999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>17822.591878</v>
+        <v>17822.591877999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.950720</v>
+        <v>4.9507199999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1751.030000</v>
+        <v>1751.03</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1105.930000</v>
+        <v>-1105.93</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>17835.045430</v>
+        <v>17835.045429999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.954179</v>
+        <v>4.9541789999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2168.440000</v>
+        <v>2168.44</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1772.400000</v>
+        <v>-1772.4</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>17663.101305</v>
       </c>
       <c r="B17" s="1">
-        <v>4.906417</v>
+        <v>4.9064170000000003</v>
       </c>
       <c r="C17" s="1">
-        <v>1138.020000</v>
+        <v>1138.02</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.931000</v>
+        <v>-258.93099999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>17673.194892</v>
       </c>
       <c r="G17" s="1">
-        <v>4.909221</v>
+        <v>4.9092209999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>1159.940000</v>
+        <v>1159.94</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.490000</v>
+        <v>-216.49</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>17684.032975</v>
+        <v>17684.032974999998</v>
       </c>
       <c r="L17" s="1">
-        <v>4.912231</v>
+        <v>4.9122310000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1186.620000</v>
+        <v>1186.6199999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.125000</v>
+        <v>-150.125</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>17693.914310</v>
+        <v>17693.91431</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.914976</v>
+        <v>4.9149760000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.076000</v>
+        <v>-128.07599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>17704.420530</v>
+        <v>17704.420529999999</v>
       </c>
       <c r="V17" s="1">
-        <v>4.917895</v>
+        <v>4.9178949999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>1201.090000</v>
+        <v>1201.0899999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.166000</v>
+        <v>-107.166</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>17714.936244</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.920816</v>
+        <v>4.9208160000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1208.200000</v>
+        <v>1208.2</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.932700</v>
+        <v>-89.932699999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>17725.441479</v>
+        <v>17725.441479000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.923734</v>
+        <v>4.9237339999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>1212.990000</v>
+        <v>1212.99</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.635300</v>
+        <v>-85.635300000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>17736.247358</v>
+        <v>17736.247358000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.926735</v>
+        <v>4.9267349999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.080800</v>
+        <v>-89.080799999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>17747.158346</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.929766</v>
+        <v>4.9297659999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1227.650000</v>
+        <v>1227.6500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.089000</v>
+        <v>-101.089</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>17758.164573</v>
+        <v>17758.164572999998</v>
       </c>
       <c r="AU17" s="1">
         <v>4.932823</v>
       </c>
       <c r="AV17" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.443000</v>
+        <v>-120.443</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>17768.812655</v>
+        <v>17768.812655000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.935781</v>
+        <v>4.9357810000000004</v>
       </c>
       <c r="BA17" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.824000</v>
+        <v>-137.82400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>17779.843711</v>
+        <v>17779.843711000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.938845</v>
+        <v>4.9388449999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.815000</v>
+        <v>-219.815</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>17791.235793</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.942010</v>
+        <v>4.9420099999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1354.980000</v>
+        <v>1354.98</v>
       </c>
       <c r="BL17" s="1">
-        <v>-356.390000</v>
+        <v>-356.39</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>17801.679586</v>
+        <v>17801.679585999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.944911</v>
+        <v>4.9449110000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1468.580000</v>
+        <v>1468.58</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.203000</v>
+        <v>-579.20299999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>17812.204662</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.947835</v>
+        <v>4.9478350000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1599.540000</v>
+        <v>1599.54</v>
       </c>
       <c r="BV17" s="1">
-        <v>-830.821000</v>
+        <v>-830.82100000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>17823.040262</v>
+        <v>17823.040261999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.950845</v>
+        <v>4.9508450000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1750.990000</v>
+        <v>1750.99</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1105.990000</v>
+        <v>-1105.99</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>17835.583095</v>
+        <v>17835.583095000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.954329</v>
+        <v>4.9543290000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>2169.290000</v>
+        <v>2169.29</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1774.550000</v>
+        <v>-1774.55</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>17663.787801</v>
+        <v>17663.787800999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.906608</v>
+        <v>4.9066080000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>1138.200000</v>
+        <v>1138.2</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.930000</v>
+        <v>-258.93</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>17673.881883</v>
+        <v>17673.881882999998</v>
       </c>
       <c r="G18" s="1">
-        <v>4.909412</v>
+        <v>4.9094119999999997</v>
       </c>
       <c r="H18" s="1">
-        <v>1159.460000</v>
+        <v>1159.46</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.359000</v>
+        <v>-217.35900000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>17684.380174</v>
+        <v>17684.380174000002</v>
       </c>
       <c r="L18" s="1">
-        <v>4.912328</v>
+        <v>4.9123279999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1186.690000</v>
+        <v>1186.69</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.342000</v>
+        <v>-150.34200000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>17694.262464</v>
+        <v>17694.262463999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.915073</v>
+        <v>4.9150729999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.067000</v>
+        <v>-128.06700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>17704.765250</v>
+        <v>17704.76525</v>
       </c>
       <c r="V18" s="1">
-        <v>4.917990</v>
+        <v>4.9179899999999996</v>
       </c>
       <c r="W18" s="1">
-        <v>1201.260000</v>
+        <v>1201.26</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.051000</v>
+        <v>-107.051</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>17715.592917</v>
+        <v>17715.592917000002</v>
       </c>
       <c r="AA18" s="1">
         <v>4.920998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1208.380000</v>
+        <v>1208.3800000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.131500</v>
+        <v>-90.131500000000003</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>17726.101654</v>
+        <v>17726.101653999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.923917</v>
+        <v>4.9239170000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>1213.020000</v>
+        <v>1213.02</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.803400</v>
+        <v>-85.803399999999996</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>17736.639192</v>
+        <v>17736.639191999999</v>
       </c>
       <c r="AK18" s="1">
         <v>4.926844</v>
       </c>
       <c r="AL18" s="1">
-        <v>1219.780000</v>
+        <v>1219.78</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.097400</v>
+        <v>-89.097399999999993</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>17747.516425</v>
+        <v>17747.516425000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.929866</v>
+        <v>4.9298659999999996</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.075000</v>
+        <v>-101.075</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>17758.531580</v>
+        <v>17758.531579999999</v>
       </c>
       <c r="AU18" s="1">
         <v>4.932925</v>
       </c>
       <c r="AV18" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.467000</v>
+        <v>-120.467</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>17769.171275</v>
+        <v>17769.171275000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.935881</v>
+        <v>4.9358810000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.830000</v>
+        <v>-137.83000000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>17780.266774</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.938963</v>
+        <v>4.9389630000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1285.830000</v>
+        <v>1285.83</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.825000</v>
+        <v>-219.82499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>17791.652431</v>
+        <v>17791.652430999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>4.942126</v>
       </c>
       <c r="BK18" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="BL18" s="1">
-        <v>-356.357000</v>
+        <v>-356.35700000000003</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>17802.074370</v>
+        <v>17802.074369999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.945021</v>
+        <v>4.9450209999999997</v>
       </c>
       <c r="BP18" s="1">
-        <v>1468.580000</v>
+        <v>1468.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.208000</v>
+        <v>-579.20799999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>17812.616340</v>
+        <v>17812.61634</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.947949</v>
+        <v>4.9479490000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>1599.690000</v>
+        <v>1599.69</v>
       </c>
       <c r="BV18" s="1">
-        <v>-830.777000</v>
+        <v>-830.77700000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>17823.460871</v>
+        <v>17823.460870999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.950961</v>
+        <v>4.9509610000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1751.110000</v>
+        <v>1751.11</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1105.990000</v>
+        <v>-1105.99</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>17836.124725</v>
+        <v>17836.124725000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.954479</v>
+        <v>4.9544790000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2170.210000</v>
+        <v>2170.21</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1772.240000</v>
+        <v>-1772.24</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>17664.131497</v>
+        <v>17664.131496999998</v>
       </c>
       <c r="B19" s="1">
-        <v>4.906703</v>
+        <v>4.9067030000000003</v>
       </c>
       <c r="C19" s="1">
-        <v>1138.110000</v>
+        <v>1138.1099999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-259.138000</v>
+        <v>-259.13799999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>17674.230570</v>
+        <v>17674.23057</v>
       </c>
       <c r="G19" s="1">
-        <v>4.909508</v>
+        <v>4.9095079999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1159.570000</v>
+        <v>1159.57</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.940000</v>
+        <v>-216.94</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>17684.725396</v>
+        <v>17684.725396000002</v>
       </c>
       <c r="L19" s="1">
-        <v>4.912424</v>
+        <v>4.9124239999999997</v>
       </c>
       <c r="M19" s="1">
-        <v>1186.790000</v>
+        <v>1186.79</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.129000</v>
+        <v>-150.12899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>17694.913248</v>
+        <v>17694.913248000001</v>
       </c>
       <c r="Q19" s="1">
         <v>4.915254</v>
       </c>
       <c r="R19" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.032000</v>
+        <v>-128.03200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>17705.419473</v>
+        <v>17705.419473000002</v>
       </c>
       <c r="V19" s="1">
-        <v>4.918172</v>
+        <v>4.9181720000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1201.180000</v>
+        <v>1201.18</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.173000</v>
+        <v>-107.173</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>17715.981316</v>
+        <v>17715.981316000001</v>
       </c>
       <c r="AA19" s="1">
         <v>4.921106</v>
       </c>
       <c r="AB19" s="1">
-        <v>1208.320000</v>
+        <v>1208.32</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.226300</v>
+        <v>-90.226299999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>17726.475648</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.924021</v>
+        <v>4.9240209999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1212.850000</v>
+        <v>1212.8499999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.733000</v>
+        <v>-85.733000000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>17736.987026</v>
+        <v>17736.987025999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.926941</v>
+        <v>4.9269410000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>1219.770000</v>
+        <v>1219.77</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.092500</v>
+        <v>-89.092500000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>17747.878009</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.929966</v>
+        <v>4.9299660000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.081000</v>
+        <v>-101.081</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>17758.881755</v>
+        <v>17758.881754999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.933023</v>
+        <v>4.9330230000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.457000</v>
+        <v>-120.45699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>17769.591372</v>
+        <v>17769.591371999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.935998</v>
+        <v>4.9359979999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.841000</v>
+        <v>-137.84100000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>17780.565360</v>
+        <v>17780.565360000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.939046</v>
+        <v>4.9390460000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.825000</v>
+        <v>-219.82499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>17792.009551</v>
+        <v>17792.009550999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.942225</v>
+        <v>4.9422249999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="BL19" s="1">
-        <v>-356.470000</v>
+        <v>-356.47</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>17802.492993</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.945137</v>
+        <v>4.9451369999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1468.510000</v>
+        <v>1468.51</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.220000</v>
+        <v>-579.22</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>17813.032979</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.948065</v>
+        <v>4.9480649999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>1599.840000</v>
+        <v>1599.84</v>
       </c>
       <c r="BV19" s="1">
-        <v>-830.856000</v>
+        <v>-830.85599999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>17823.884453</v>
+        <v>17823.884452999999</v>
       </c>
       <c r="BY19" s="1">
         <v>4.951079</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1751.100000</v>
+        <v>1751.1</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1105.960000</v>
+        <v>-1105.96</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>17836.664404</v>
+        <v>17836.664403999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.954629</v>
+        <v>4.9546289999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>2167.910000</v>
+        <v>2167.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1773.910000</v>
+        <v>-1773.91</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>17664.472248</v>
+        <v>17664.472247999998</v>
       </c>
       <c r="B20" s="1">
-        <v>4.906798</v>
+        <v>4.9067980000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1138.370000</v>
+        <v>1138.3699999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.899000</v>
+        <v>-258.899</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>17674.574795</v>
       </c>
       <c r="G20" s="1">
-        <v>4.909604</v>
+        <v>4.9096039999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1159.160000</v>
+        <v>1159.1600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.845000</v>
+        <v>-216.845</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>17685.378620</v>
+        <v>17685.37862</v>
       </c>
       <c r="L20" s="1">
-        <v>4.912605</v>
+        <v>4.9126050000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1186.800000</v>
+        <v>1186.8</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.375000</v>
+        <v>-150.375</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>17695.305055</v>
+        <v>17695.305055000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.915363</v>
+        <v>4.9153630000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1194.210000</v>
+        <v>1194.21</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.038000</v>
+        <v>-128.03800000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>17705.795969</v>
+        <v>17705.795968999999</v>
       </c>
       <c r="V20" s="1">
-        <v>4.918277</v>
+        <v>4.9182769999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1201.190000</v>
+        <v>1201.19</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.256000</v>
+        <v>-107.256</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>17716.328979</v>
+        <v>17716.328979000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.921202</v>
+        <v>4.9212020000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1208.310000</v>
+        <v>1208.31</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.173400</v>
+        <v>-90.173400000000001</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>17726.837718</v>
+        <v>17726.837717999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.924122</v>
+        <v>4.9241219999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.605600</v>
+        <v>-85.605599999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>17737.336039</v>
+        <v>17737.336039000002</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.927038</v>
+        <v>4.9270379999999996</v>
       </c>
       <c r="AL20" s="1">
-        <v>1219.760000</v>
+        <v>1219.76</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.079700</v>
+        <v>-89.079700000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>17748.292665</v>
+        <v>17748.292665000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.930081</v>
+        <v>4.9300810000000004</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1227.600000</v>
+        <v>1227.5999999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.096000</v>
+        <v>-101.096</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>17759.311290</v>
+        <v>17759.311290000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.933142</v>
+        <v>4.9331420000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.451000</v>
+        <v>-120.45099999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>17769.889500</v>
+        <v>17769.889500000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.936080</v>
+        <v>4.9360799999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.846000</v>
+        <v>-137.846</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>17780.925950</v>
+        <v>17780.925950000001</v>
       </c>
       <c r="BE20" s="1">
         <v>4.939146</v>
       </c>
       <c r="BF20" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.822000</v>
+        <v>-219.822</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>17792.389488</v>
+        <v>17792.389488000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.942330</v>
+        <v>4.9423300000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="BL20" s="1">
-        <v>-356.424000</v>
+        <v>-356.42399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>17802.890290</v>
+        <v>17802.890289999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.945247</v>
+        <v>4.9452470000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1468.500000</v>
+        <v>1468.5</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.243000</v>
+        <v>-579.24300000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>17813.459540</v>
+        <v>17813.45954</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.948183</v>
+        <v>4.9481830000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1599.920000</v>
+        <v>1599.92</v>
       </c>
       <c r="BV20" s="1">
-        <v>-830.791000</v>
+        <v>-830.79100000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>17824.331877</v>
+        <v>17824.331877000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.951203</v>
+        <v>4.9512029999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1751.200000</v>
+        <v>1751.2</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1105.790000</v>
+        <v>-1105.79</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>17837.203027</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.954779</v>
+        <v>4.9547790000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>2170.530000</v>
+        <v>2170.5300000000002</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1773.260000</v>
+        <v>-1773.26</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>17665.128456</v>
+        <v>17665.128455999999</v>
       </c>
       <c r="B21" s="1">
-        <v>4.906980</v>
+        <v>4.9069799999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1138.310000</v>
+        <v>1138.31</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.729000</v>
+        <v>-258.72899999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>17675.231466</v>
+        <v>17675.231466000001</v>
       </c>
       <c r="G21" s="1">
-        <v>4.909787</v>
+        <v>4.9097869999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1160.170000</v>
+        <v>1160.17</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.788000</v>
+        <v>-216.78800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>17685.764540</v>
+        <v>17685.76454</v>
       </c>
       <c r="L21" s="1">
         <v>4.912712</v>
       </c>
       <c r="M21" s="1">
-        <v>1186.920000</v>
+        <v>1186.92</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.142000</v>
+        <v>-150.142</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>17695.658238</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.915461</v>
+        <v>4.9154609999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>1194.220000</v>
+        <v>1194.22</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.067000</v>
+        <v>-128.06700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>17706.135698</v>
+        <v>17706.135697999998</v>
       </c>
       <c r="V21" s="1">
-        <v>4.918371</v>
+        <v>4.9183709999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1201.110000</v>
+        <v>1201.1099999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.006000</v>
+        <v>-107.006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>17716.676178</v>
+        <v>17716.676178000002</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.921299</v>
+        <v>4.9212990000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1208.300000</v>
+        <v>1208.3</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.198900</v>
+        <v>-90.198899999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>17727.350614</v>
+        <v>17727.350613999999</v>
       </c>
       <c r="AF21" s="1">
         <v>4.924264</v>
       </c>
       <c r="AG21" s="1">
-        <v>1212.970000</v>
+        <v>1212.97</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.677100</v>
+        <v>-85.677099999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>17737.769079</v>
+        <v>17737.769079000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.927158</v>
+        <v>4.9271580000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1219.810000</v>
+        <v>1219.81</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.130100</v>
+        <v>-89.130099999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>17748.598696</v>
+        <v>17748.598696000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.930166</v>
+        <v>4.9301659999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1227.620000</v>
+        <v>1227.6199999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.093000</v>
+        <v>-101.093</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>17759.621822</v>
+        <v>17759.621822000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.933228</v>
+        <v>4.9332279999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.467000</v>
+        <v>-120.467</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>17770.249068</v>
+        <v>17770.249068000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.936180</v>
+        <v>4.9361800000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.836000</v>
+        <v>-137.83600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>17781.288526</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.939247</v>
+        <v>4.9392469999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1285.820000</v>
+        <v>1285.82</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.820000</v>
+        <v>-219.82</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>17792.767935</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.942436</v>
+        <v>4.9424359999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1354.970000</v>
+        <v>1354.97</v>
       </c>
       <c r="BL21" s="1">
-        <v>-356.459000</v>
+        <v>-356.459</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>17803.313376</v>
+        <v>17803.313375999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.945365</v>
+        <v>4.9453649999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1468.540000</v>
+        <v>1468.54</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.217000</v>
+        <v>-579.21699999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>17813.865267</v>
+        <v>17813.865267000001</v>
       </c>
       <c r="BT21" s="1">
         <v>4.948296</v>
       </c>
       <c r="BU21" s="1">
-        <v>1600.010000</v>
+        <v>1600.01</v>
       </c>
       <c r="BV21" s="1">
-        <v>-830.901000</v>
+        <v>-830.90099999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>17824.762440</v>
+        <v>17824.762439999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.951323</v>
+        <v>4.9513230000000004</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1751.070000</v>
+        <v>1751.07</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1105.840000</v>
+        <v>-1105.8399999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>17837.742180</v>
+        <v>17837.742180000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.954928</v>
+        <v>4.9549279999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2168.420000</v>
+        <v>2168.42</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1772.620000</v>
+        <v>-1772.62</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>17665.497489</v>
+        <v>17665.497489000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.907083</v>
+        <v>4.9070830000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1138.280000</v>
+        <v>1138.28</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.768000</v>
+        <v>-258.76799999999997</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>17675.608922</v>
+        <v>17675.608921999999</v>
       </c>
       <c r="G22" s="1">
         <v>4.909891</v>
       </c>
       <c r="H22" s="1">
-        <v>1159.200000</v>
+        <v>1159.2</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.028000</v>
+        <v>-217.02799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>17686.110219</v>
+        <v>17686.110218999998</v>
       </c>
       <c r="L22" s="1">
-        <v>4.912808</v>
+        <v>4.9128080000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1186.850000</v>
+        <v>1186.8499999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.384000</v>
+        <v>-150.38399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>17696.003954</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.915557</v>
+        <v>4.9155569999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1194.230000</v>
+        <v>1194.23</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.095000</v>
+        <v>-128.095</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>17706.480416</v>
+        <v>17706.480415999999</v>
       </c>
       <c r="V22" s="1">
-        <v>4.918467</v>
+        <v>4.9184669999999997</v>
       </c>
       <c r="W22" s="1">
-        <v>1201.240000</v>
+        <v>1201.24</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.032000</v>
+        <v>-107.032</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>17717.096787</v>
+        <v>17717.096786999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.921416</v>
+        <v>4.9214159999999998</v>
       </c>
       <c r="AB22" s="1">
-        <v>1208.330000</v>
+        <v>1208.33</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.004300</v>
+        <v>-90.004300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>17727.507316</v>
+        <v>17727.507315999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.924308</v>
+        <v>4.9243079999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1212.890000</v>
+        <v>1212.8900000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.678700</v>
+        <v>-85.678700000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>17738.033912</v>
+        <v>17738.033911999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.927232</v>
+        <v>4.9272320000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1219.760000</v>
+        <v>1219.76</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.086900</v>
+        <v>-89.0869</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>17748.960280</v>
+        <v>17748.960279999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.930267</v>
+        <v>4.9302669999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.081000</v>
+        <v>-101.081</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>17759.990314</v>
+        <v>17759.990313999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.933331</v>
+        <v>4.9333309999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.443000</v>
+        <v>-120.443</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>17770.605227</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.936279</v>
+        <v>4.9362789999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1245.920000</v>
+        <v>1245.92</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.841000</v>
+        <v>-137.84100000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>17782.012188</v>
+        <v>17782.012188000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.939448</v>
+        <v>4.9394479999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1285.800000</v>
+        <v>1285.8</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.828000</v>
+        <v>-219.828</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>17793.587330</v>
+        <v>17793.587329999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.942663</v>
+        <v>4.9426629999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1355.030000</v>
+        <v>1355.03</v>
       </c>
       <c r="BL22" s="1">
-        <v>-356.431000</v>
+        <v>-356.43099999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>17803.711167</v>
+        <v>17803.711167000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.945475</v>
+        <v>4.9454750000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1468.570000</v>
+        <v>1468.57</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.250000</v>
+        <v>-579.25</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>17814.280914</v>
+        <v>17814.280913999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.948411</v>
+        <v>4.9484110000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1600.000000</v>
+        <v>1600</v>
       </c>
       <c r="BV22" s="1">
-        <v>-831.049000</v>
+        <v>-831.04899999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>17825.182979</v>
+        <v>17825.182979000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.951440</v>
+        <v>4.9514399999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1751.170000</v>
+        <v>1751.17</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1105.900000</v>
+        <v>-1105.9000000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>17838.578929</v>
+        <v>17838.578928999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.955161</v>
+        <v>4.9551610000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>2170.160000</v>
+        <v>2170.16</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1772.890000</v>
+        <v>-1772.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>17665.840214</v>
       </c>
@@ -5878,345 +6294,345 @@
         <v>4.907178</v>
       </c>
       <c r="C23" s="1">
-        <v>1138.510000</v>
+        <v>1138.51</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.883000</v>
+        <v>-258.88299999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>17675.952152</v>
+        <v>17675.952152000002</v>
       </c>
       <c r="G23" s="1">
-        <v>4.909987</v>
+        <v>4.9099870000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1160.010000</v>
+        <v>1160.01</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.756000</v>
+        <v>-216.756</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>17686.459403</v>
+        <v>17686.459403000001</v>
       </c>
       <c r="L23" s="1">
-        <v>4.912905</v>
+        <v>4.9129050000000003</v>
       </c>
       <c r="M23" s="1">
-        <v>1186.800000</v>
+        <v>1186.8</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.173000</v>
+        <v>-150.173</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>17696.419069</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.915672</v>
+        <v>4.9156719999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1194.190000</v>
+        <v>1194.19</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.072000</v>
+        <v>-128.072</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>17706.912464</v>
+        <v>17706.912464000001</v>
       </c>
       <c r="V23" s="1">
-        <v>4.918587</v>
+        <v>4.9185869999999996</v>
       </c>
       <c r="W23" s="1">
-        <v>1201.230000</v>
+        <v>1201.23</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.198000</v>
+        <v>-107.19799999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>17717.381491</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.921495</v>
+        <v>4.9214950000000002</v>
       </c>
       <c r="AB23" s="1">
-        <v>1208.420000</v>
+        <v>1208.42</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.179700</v>
+        <v>-90.179699999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>17727.852068</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.924403</v>
+        <v>4.9244029999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1212.770000</v>
+        <v>1212.77</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.776800</v>
+        <v>-85.776799999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>17738.380150</v>
+        <v>17738.380150000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.927328</v>
+        <v>4.9273280000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.109900</v>
+        <v>-89.109899999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>17749.319880</v>
+        <v>17749.319879999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.930367</v>
+        <v>4.9303670000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.090000</v>
+        <v>-101.09</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>17760.550793</v>
+        <v>17760.550792999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.933486</v>
+        <v>4.9334860000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.443000</v>
+        <v>-120.443</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>17771.325418</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.936479</v>
+        <v>4.9364790000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.847000</v>
+        <v>-137.84700000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>17782.399617</v>
+        <v>17782.399616999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.939555</v>
+        <v>4.9395550000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1285.780000</v>
+        <v>1285.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.828000</v>
+        <v>-219.828</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>17793.889389</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.942747</v>
+        <v>4.9427469999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1354.990000</v>
+        <v>1354.99</v>
       </c>
       <c r="BL23" s="1">
-        <v>-356.412000</v>
+        <v>-356.41199999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>17804.130913</v>
+        <v>17804.130913000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.945592</v>
+        <v>4.9455920000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1468.510000</v>
+        <v>1468.51</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.198000</v>
+        <v>-579.19799999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>17815.004609</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.948612</v>
+        <v>4.9486119999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1600.100000</v>
+        <v>1600.1</v>
       </c>
       <c r="BV23" s="1">
-        <v>-831.229000</v>
+        <v>-831.22900000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>17825.929459</v>
+        <v>17825.929458999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.951647</v>
+        <v>4.9516470000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1751.160000</v>
+        <v>1751.16</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1105.950000</v>
+        <v>-1105.95</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>17838.822007</v>
+        <v>17838.822006999999</v>
       </c>
       <c r="CD23" s="1">
         <v>4.955228</v>
       </c>
       <c r="CE23" s="1">
-        <v>2170.490000</v>
+        <v>2170.4899999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1772.930000</v>
+        <v>-1772.93</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>17666.179973</v>
+        <v>17666.179972999998</v>
       </c>
       <c r="B24" s="1">
-        <v>4.907272</v>
+        <v>4.9072719999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1138.200000</v>
+        <v>1138.2</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.845000</v>
+        <v>-258.84500000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>17676.295421</v>
+        <v>17676.295420999999</v>
       </c>
       <c r="G24" s="1">
-        <v>4.910082</v>
+        <v>4.9100820000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>1159.690000</v>
+        <v>1159.69</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.308000</v>
+        <v>-217.30799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>17686.881530</v>
+        <v>17686.881529999999</v>
       </c>
       <c r="L24" s="1">
-        <v>4.913023</v>
+        <v>4.9130229999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1186.590000</v>
+        <v>1186.5899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.203000</v>
+        <v>-150.203</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>17696.715183</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.915754</v>
+        <v>4.9157539999999997</v>
       </c>
       <c r="R24" s="1">
-        <v>1194.150000</v>
+        <v>1194.1500000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.021000</v>
+        <v>-128.02099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>17707.192671</v>
+        <v>17707.192671000001</v>
       </c>
       <c r="V24" s="1">
-        <v>4.918665</v>
+        <v>4.9186649999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1201.200000</v>
+        <v>1201.2</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.221000</v>
+        <v>-107.221</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>17717.731201</v>
+        <v>17717.731200999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.921592</v>
+        <v>4.9215920000000004</v>
       </c>
       <c r="AB24" s="1">
-        <v>1208.320000</v>
+        <v>1208.32</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.976000</v>
+        <v>-89.975999999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>17728.195763</v>
@@ -6225,679 +6641,680 @@
         <v>4.924499</v>
       </c>
       <c r="AG24" s="1">
-        <v>1212.880000</v>
+        <v>1212.8800000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.689400</v>
+        <v>-85.689400000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>17738.730790</v>
+        <v>17738.730790000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.927425</v>
+        <v>4.9274250000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1219.790000</v>
+        <v>1219.79</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.099400</v>
+        <v>-89.099400000000003</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>17750.048007</v>
+        <v>17750.048007000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.930569</v>
+        <v>4.9305690000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.104000</v>
+        <v>-101.104</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>17760.719966</v>
+        <v>17760.719966000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.933533</v>
+        <v>4.9335329999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.436000</v>
+        <v>-120.43600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>17771.680026</v>
+        <v>17771.680026000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.936578</v>
+        <v>4.9365779999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1245.940000</v>
+        <v>1245.94</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.839000</v>
+        <v>-137.839</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>17782.758173</v>
+        <v>17782.758172999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.939655</v>
+        <v>4.9396550000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1285.790000</v>
+        <v>1285.79</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.804000</v>
+        <v>-219.804</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>17794.569934</v>
+        <v>17794.569933999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.942936</v>
+        <v>4.9429360000000004</v>
       </c>
       <c r="BK24" s="1">
-        <v>1355.010000</v>
+        <v>1355.01</v>
       </c>
       <c r="BL24" s="1">
-        <v>-356.419000</v>
+        <v>-356.41899999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>17804.847616</v>
+        <v>17804.847615999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.945791</v>
+        <v>4.9457909999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1468.510000</v>
+        <v>1468.51</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.233000</v>
+        <v>-579.23299999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>17815.133040</v>
+        <v>17815.133040000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.948648</v>
+        <v>4.9486480000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1600.170000</v>
+        <v>1600.17</v>
       </c>
       <c r="BV24" s="1">
-        <v>-831.285000</v>
+        <v>-831.28499999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>17826.034114</v>
+        <v>17826.034113999998</v>
       </c>
       <c r="BY24" s="1">
         <v>4.951676</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1751.240000</v>
+        <v>1751.24</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1106.030000</v>
+        <v>-1106.03</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>17839.342801</v>
+        <v>17839.342800999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.955373</v>
+        <v>4.9553729999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2168.550000</v>
+        <v>2168.5500000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1772.110000</v>
+        <v>-1772.11</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>17666.600600</v>
+        <v>17666.600600000002</v>
       </c>
       <c r="B25" s="1">
-        <v>4.907389</v>
+        <v>4.9073890000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>1138.520000</v>
+        <v>1138.52</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.864000</v>
+        <v>-258.86399999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>17676.765591</v>
+        <v>17676.765590999999</v>
       </c>
       <c r="G25" s="1">
-        <v>4.910213</v>
+        <v>4.9102129999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>1159.180000</v>
+        <v>1159.18</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.632000</v>
+        <v>-216.63200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>17687.161739</v>
+        <v>17687.161738999999</v>
       </c>
       <c r="L25" s="1">
-        <v>4.913100</v>
+        <v>4.9131</v>
       </c>
       <c r="M25" s="1">
-        <v>1186.400000</v>
+        <v>1186.4000000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.047000</v>
+        <v>-150.047</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>17697.064860</v>
+        <v>17697.064859999999</v>
       </c>
       <c r="Q25" s="1">
         <v>4.915851</v>
       </c>
       <c r="R25" s="1">
-        <v>1194.120000</v>
+        <v>1194.1199999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.971000</v>
+        <v>-127.971</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>17707.536399</v>
+        <v>17707.536399000001</v>
       </c>
       <c r="V25" s="1">
-        <v>4.918760</v>
+        <v>4.9187599999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1201.130000</v>
+        <v>1201.1300000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.142000</v>
+        <v>-107.142</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>17718.081346</v>
+        <v>17718.081345999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.921689</v>
+        <v>4.9216889999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1208.420000</v>
+        <v>1208.42</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.075300</v>
+        <v>-90.075299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>17728.881267</v>
+        <v>17728.881267000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.924689</v>
+        <v>4.9246889999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1212.830000</v>
+        <v>1212.83</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.616800</v>
+        <v>-85.616799999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>17739.426182</v>
+        <v>17739.426181999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.927618</v>
+        <v>4.9276179999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1219.770000</v>
+        <v>1219.77</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.134400</v>
+        <v>-89.134399999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>17750.424470</v>
+        <v>17750.424470000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.930673</v>
+        <v>4.9306729999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1227.630000</v>
+        <v>1227.6300000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.132000</v>
+        <v>-101.13200000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>17761.084984</v>
+        <v>17761.084984000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.933635</v>
+        <v>4.9336349999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.430000</v>
+        <v>-120.43</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>17772.038635</v>
+        <v>17772.038635000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.936677</v>
+        <v>4.9366770000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.836000</v>
+        <v>-137.83600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>17783.431738</v>
+        <v>17783.431737999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.939842</v>
+        <v>4.9398419999999996</v>
       </c>
       <c r="BF25" s="1">
-        <v>1285.760000</v>
+        <v>1285.76</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.820000</v>
+        <v>-219.82</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>17794.680044</v>
+        <v>17794.680044000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.942967</v>
+        <v>4.9429670000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1354.970000</v>
+        <v>1354.97</v>
       </c>
       <c r="BL25" s="1">
-        <v>-356.386000</v>
+        <v>-356.38600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>17804.962574</v>
+        <v>17804.962574000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.945823</v>
+        <v>4.9458229999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1468.510000</v>
+        <v>1468.51</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.236000</v>
+        <v>-579.23599999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>17815.569024</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.948769</v>
+        <v>4.9487690000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1600.140000</v>
+        <v>1600.14</v>
       </c>
       <c r="BV25" s="1">
-        <v>-831.358000</v>
+        <v>-831.35799999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>17826.477041</v>
+        <v>17826.477040999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.951799</v>
+        <v>4.9517990000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1751.130000</v>
+        <v>1751.13</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1105.820000</v>
+        <v>-1105.82</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>17839.859106</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.955516</v>
+        <v>4.9555160000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>2168.710000</v>
+        <v>2168.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1771.980000</v>
+        <v>-1771.98</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>17666.882804</v>
+        <v>17666.882804000001</v>
       </c>
       <c r="B26" s="1">
-        <v>4.907467</v>
+        <v>4.9074669999999996</v>
       </c>
       <c r="C26" s="1">
-        <v>1138.220000</v>
+        <v>1138.22</v>
       </c>
       <c r="D26" s="1">
-        <v>-259.132000</v>
+        <v>-259.13200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>17677.006684</v>
       </c>
       <c r="G26" s="1">
-        <v>4.910280</v>
+        <v>4.9102800000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1159.700000</v>
+        <v>1159.7</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.289000</v>
+        <v>-217.28899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>17687.506490</v>
+        <v>17687.50649</v>
       </c>
       <c r="L26" s="1">
-        <v>4.913196</v>
+        <v>4.9131960000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1186.460000</v>
+        <v>1186.46</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.280000</v>
+        <v>-150.28</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>17697.412557</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.915948</v>
+        <v>4.9159480000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1194.290000</v>
+        <v>1194.29</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.050000</v>
+        <v>-128.05000000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>17707.878638</v>
+        <v>17707.878637999998</v>
       </c>
       <c r="V26" s="1">
-        <v>4.918855</v>
+        <v>4.9188549999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1201.210000</v>
+        <v>1201.21</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.973000</v>
+        <v>-106.973</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>17718.782193</v>
+        <v>17718.782192999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.921884</v>
+        <v>4.9218840000000004</v>
       </c>
       <c r="AB26" s="1">
-        <v>1208.430000</v>
+        <v>1208.43</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.181700</v>
+        <v>-90.181700000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>17729.226450</v>
+        <v>17729.226449999998</v>
       </c>
       <c r="AF26" s="1">
         <v>4.924785</v>
       </c>
       <c r="AG26" s="1">
-        <v>1212.910000</v>
+        <v>1212.9100000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.600600</v>
+        <v>-85.6006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>17739.774372</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.927715</v>
+        <v>4.9277150000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1219.770000</v>
+        <v>1219.77</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.100200</v>
+        <v>-89.100200000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>17750.816807</v>
+        <v>17750.816806999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.930782</v>
+        <v>4.9307819999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1227.610000</v>
+        <v>1227.6099999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.095000</v>
+        <v>-101.095</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>17761.762519</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.933823</v>
+        <v>4.9338230000000003</v>
       </c>
       <c r="AV26" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.454000</v>
+        <v>-120.45399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>17772.707737</v>
+        <v>17772.707737000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.936863</v>
+        <v>4.9368629999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1245.950000</v>
+        <v>1245.95</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.836000</v>
+        <v>-137.83600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>17783.878633</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.939966</v>
+        <v>4.9399660000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1285.810000</v>
+        <v>1285.81</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.806000</v>
+        <v>-219.80600000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>17795.050059</v>
+        <v>17795.050059000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.943069</v>
+        <v>4.9430690000000004</v>
       </c>
       <c r="BK26" s="1">
-        <v>1355.030000</v>
+        <v>1355.03</v>
       </c>
       <c r="BL26" s="1">
-        <v>-356.484000</v>
+        <v>-356.48399999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>17805.373757</v>
+        <v>17805.373757000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.945937</v>
+        <v>4.9459369999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1468.570000</v>
+        <v>1468.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.208000</v>
+        <v>-579.20799999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>17815.999583</v>
+        <v>17815.999583000001</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.948889</v>
+        <v>4.9488890000000003</v>
       </c>
       <c r="BU26" s="1">
-        <v>1600.080000</v>
+        <v>1600.08</v>
       </c>
       <c r="BV26" s="1">
-        <v>-831.529000</v>
+        <v>-831.529</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>17826.928897</v>
+        <v>17826.928897000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.951925</v>
+        <v>4.9519250000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1751.280000</v>
+        <v>1751.28</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1105.950000</v>
+        <v>-1105.95</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>17840.411167</v>
+        <v>17840.411166999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.955670</v>
+        <v>4.9556699999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>2170.340000</v>
+        <v>2170.34</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1772.660000</v>
+        <v>-1772.66</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>